--- a/output/2016-08-01 to 2016-09-01.xlsx
+++ b/output/2016-08-01 to 2016-09-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -68,7 +68,7 @@
     <t>['PHYS', 'ECE']</t>
   </si>
   <si>
-    <t>['cfop_CHOUDHURY', 'cfop_RRC']</t>
+    <t>['cfop_RRC', 'cfop_CHOUDHURY']</t>
   </si>
   <si>
     <t>['cfop_NH']</t>
@@ -92,6 +92,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-100-01</t>
   </si>
   <si>
@@ -102,6 +105,18 @@
   </si>
   <si>
     <t>2016-06-103-01</t>
+  </si>
+  <si>
+    <t>['Mahanth Gowda', 'Ashutosh Dhekne, Mahanth Gowda, Sheng Shen', 'Ashutosh Dhekne']</t>
+  </si>
+  <si>
+    <t>['HYUNG JIN YOON', 'Hyung-Jin Yoon']</t>
+  </si>
+  <si>
+    <t>['Joseph Chapman']</t>
+  </si>
+  <si>
+    <t>['Shuchen Song']</t>
   </si>
   <si>
     <t>cfop_RRC</t>
@@ -759,13 +774,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -775,13 +790,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -789,13 +807,16 @@
       <c r="D2">
         <v>52.63157894736842</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>35</v>
@@ -803,13 +824,16 @@
       <c r="D3">
         <v>36.8421052631579</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -817,19 +841,25 @@
       <c r="D4">
         <v>7.368421052631579</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
         <v>3.157894736842105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -875,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -889,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -903,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -917,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>6</v>
